--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,19 +36,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_get_http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://bro.flyme.cn/static/base_data/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_get_https</t>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/static/galaxy/search.do</t>
+  </si>
+  <si>
+    <t>配置项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,27 +59,580 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"ljx_861936030053089","sex":-1,"activeTime":1523326623000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"imei":"861936030053089"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页导航\背景图\个人中心banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"supportSDK":"48","videoVersion":"7011001","v":"7012000","sdkVersion":"1001004","flymeuid":"","nt":"wifi","vn":"7.12.0","deviceinfo":"If/JiY3Vuyw0ugRAt67MBiH1meVzHOQJxJp00KMF1F/5TUG1QygNRmYC2eVCX60Lrm0Wep148uxI","epvp4TrTLHPpGckyhKOMo7fLaaoUXdiP8W6X8qf1sznQygj3UPwFlumsr73oHv2hzOogdpzZI1C9","24jaZQ4v1UIeUbSlRqk=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.29.60.58","os":"6.0-1517987373_I"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":"深圳市"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取城市信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser_setting_key
+browser_setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_container
+card_container
+card_leaf
+card_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_white_list_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/search_engine/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","cityType":"first_city","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_engine_group
+search_engine_unit
+search_engine_mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site_square_group
+site_square_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索热词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_hot_search_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","searchEngine":"360_0630_1","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloom_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索推荐词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/site_square/list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/card/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"visit_webpage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/static/base_data/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/static/base_data/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/bro_setting/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/black_white_list/listMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/getUserData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/static/tag/convert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/static/search_suggest/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/client/getState.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://bro.flyme.cn/static/bloom_config/listAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://bro.flyme.cn/static/searchEngine/listHotSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/newsflow/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"types":"visit_webpage", "ran":"553"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
+    <t>https://reader.meizu.com/android/unauth/v2700/columns/subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/newsflow/column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"algorithmVersion":"YIDIAN-47","cpType":"81","temp_column_cp_source":"81","offset":"0","baiduid":"","browserCardEnabled":"1","temp_load_type":"1","clientReqId":"6daab6b9-ff32-4a30-953b-44eb74dcd534","opType":"1","temp_column_name":"NBA","supportSDK":"48","browserCardSex":"1","cpChannelId":"47","cpMark":"0","tags":"","columnId":"47","ucparam":"{"channelId":47,"cityName":"","ftime":0,"method":"new","recoid":""}","temp_column_id":"47","v":"8000005","sdkVersion":"2000000","flymeuid":"","nt":"wifi","vn":"8.0.5","deviceinfo":"a9mYMf4q/pHPpQLXKR2YFod2Se5NRaMWoH89Ld1xnJcrzSTkz0a/UqJoPuaFWZ/ILGFh4nVnB4dR","n9WP6ZQi4kXRRR+ccmvtB8veix3n4ykKw/056noEh7uZqnCCxA60EgZpAaOxpSzI6lPPoZBmiuw5","FvqvnaAmHfMHBvBQPsM=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非推荐频道资讯流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐频道资讯流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/auth/columns/subscribe/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步频道数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"v":"8000005","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.0.5","deviceinfo":"j+kuJDOuZEzmwERbCsxpUO9FJlwHJcgyYiHuQgw1HS+Hdf0LAtvt8Dauyn+AjtghddbxcQWZvy1j","+OnyPQWOwDHo4MXKApRjyZgyaCAwnjgL9WwU6XLk3Sk6uB5VdvRtyI80CVhn+XYxTSML/2ztYxJO","nucKLDeDRCaZb9UHwyQ=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/auth/v2700/columns/subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登陆账号获取频道数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登陆账号获取频道数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.meizu.com/api/auth/has/message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"source":"6"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200
+value=0\1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/comment/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"businessType":"5","businessId":"1917295907045488308_2_0","businessSubType":"4","content":"不","star":"","image":"","source":"6","materielId":"298200461","sign":"0a722c06eb9fbe7c92b9157ae449a83f"}</t>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/my/comment/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"source":"6","count":"10","offset":"0","videoCpId":"-1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"algorithmVersion":"UC--1","cpType":"2","temp_column_cp_source":"2","offset":"0","baiduid":"","browserCardEnabled":"1","temp_load_type":"1","clientReqId":"6daab6b9-ff32-4a30-953b-44eb74dcd534","opType":"1","temp_column_name":"头条","supportSDK":"48","browserCardSex":"1","cpChannelId":"100","cpMark":"0","tags":"","columnId":"-1","ucparam":"{"channelId":100,"cityName":"","ftime":0,"method":"new","recoid":""}","temp_column_id":"-1","v":"8000005","sdkVersion":"2000000","flymeuid":"","nt":"wifi","vn":"8.0.5","deviceinfo":"GYUF2Sirxzm+2a9bGcmDT6iw5nXLOM3HU/rSvZneirrY4DJBrRD+B5gKW8BeAp7eqd/ei0KZxj5Y","o3urC5Z+5onpVNrs4dl3v57IX6o2WareFKlZsS0w1lgzxWPBlHbjVyoi/wM7CRhfl/TGNcH0b2rQ","FaCaA8XMmdllGuE/dJs=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei:861936030053089","sn:S25QACP56DK2M",""}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"ok"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC","6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXk","CdSQ10XxQhFp8SZ1ZbU=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.meizu.com/oauth/token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"trust","remember_me":"SxxgfatrTdka0oov-7sc2UP91GZTZHDU_obpqEanTJZWGnE3tfWat9sbUBIU-AVO-e_S21SzLKOFU0oLC9piUShm0F9_19ksQiXPIWB2QrERdNuvpt1f_Y5y-d_xYsLryktwzqr1hI_LI5YsKaH_yGguqB5nnc2nMnLHZBmoooI*MmF9yTI2Zz5QKCUBtbR83QXGbmO2O3FBko2t9dLpwSI7hvcVloTbLjjqEw1WJ_F0bqCQf6E2uK3CAbJXgrmQravf3kvhwFJ3HbMkM_8EHXJSdhyHlceH37gjz915w6oEa8HsCkAb--lTvvSlmNIDw7hzoWSdhzhDbMzaW4fuQeQ","client_id":"KzA76k3lBCYDqKTy6VYvb9WR6QSUWVGJ","client_secret":"G22l4Wj22DT9tKawFqi5x13w0TTalxxv","info":"base","grant_type":"remember_me","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","lang":"zh_CN"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.meizu.com/oauth/clients/uberauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"scope":"basic","client_id":"com.meizu.mzsyncservice","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6Ijc2NzgyNDIiLCJ0IjoxNTY2ODc1ODA1ODY2LCJzIjoibnMiLCJjIjoiMSIsInIiOiJ2dklUMHFFbmRiRExwTTZ5UEhsNiIsImEiOiJCOTEyNjNFQjU2Njk1NjVENEZFQ0U2QjY3REUzQkM0NSIsImwiOiIxNzgwMzQwQTA1NkFCODhEQTJGRDFFN0VFMEM1OUYxMCJ9","lang":"zh_CN"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +670,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,12 +729,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -141,34 +746,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -177,7 +767,18 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -186,43 +787,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -231,90 +800,64 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="超链接 3" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -684,97 +1227,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="132" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="132" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="264" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="264" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="363" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="9" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E13" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E7" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E20" r:id="rId15"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E21" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId20"/>
+    <hyperlink ref="E24" r:id="rId21"/>
+    <hyperlink ref="E19" r:id="rId22"/>
+    <hyperlink ref="E26" r:id="rId23"/>
+    <hyperlink ref="E27" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,26 @@
   </si>
   <si>
     <t>登陆账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/comment/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"businessType":"5","businessId":"0N3ZBRxL_81_0","businessSubType":"4","offset":"10","count":"10","materielId":"71438959"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -807,6 +827,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -820,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -850,6 +883,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -861,74 +897,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -948,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1227,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1851,39 +1819,65 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="363" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="363" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1912,10 +1906,11 @@
     <hyperlink ref="E23" r:id="rId20"/>
     <hyperlink ref="E24" r:id="rId21"/>
     <hyperlink ref="E19" r:id="rId22"/>
-    <hyperlink ref="E26" r:id="rId23"/>
-    <hyperlink ref="E27" r:id="rId24"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E28" r:id="rId24"/>
+    <hyperlink ref="E25" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -95,22 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userId":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"city":"深圳市"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取城市信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>browser_setting_key
 browser_setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,19 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site_square_group
-site_square_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag_set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://bro.flyme.cn/site_square/list.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://bro.flyme.cn/card/get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,19 +225,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://bro.flyme.cn/static/tag/convert.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://bro.flyme.cn/static/search_suggest/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bro.flyme.cn/client/getState.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,15 +418,6 @@
     <t>test010</t>
   </si>
   <si>
-    <t>test011</t>
-  </si>
-  <si>
-    <t>test012</t>
-  </si>
-  <si>
-    <t>test013</t>
-  </si>
-  <si>
     <t>test014</t>
   </si>
   <si>
@@ -655,12 +605,64 @@
     <t>{"businessType":"5","businessId":"0N3ZBRxL_81_0","businessSubType":"4","offset":"10","count":"10","materielId":"71438959"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>test011a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网监黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/client/getState.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆友旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test011b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjian_black_list（1表示不在黑名单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"113516747"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'state': 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test011c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjian_black_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +737,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -853,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -884,6 +892,21 @@
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,8 +1221,8 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1221,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1239,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -1248,19 +1271,19 @@
     </row>
     <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -1270,169 +1293,169 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="3" t="s">
-        <v>123</v>
+      <c r="I4" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1446,19 +1469,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1468,149 +1491,156 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14">
+        <v>200</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="132" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="132" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>6</v>
@@ -1620,226 +1650,226 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="264" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="264" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1848,67 +1878,67 @@
     <row r="27" spans="1:9" ht="363" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E2" r:id="rId7"/>
-    <hyperlink ref="E4" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E13" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E20" r:id="rId15"/>
-    <hyperlink ref="E18" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E21" r:id="rId18"/>
-    <hyperlink ref="E22" r:id="rId19"/>
-    <hyperlink ref="E23" r:id="rId20"/>
-    <hyperlink ref="E24" r:id="rId21"/>
-    <hyperlink ref="E19" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E28" r:id="rId24"/>
-    <hyperlink ref="E25" r:id="rId25"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E20" r:id="rId12"/>
+    <hyperlink ref="E18" r:id="rId13"/>
+    <hyperlink ref="E17" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E22" r:id="rId16"/>
+    <hyperlink ref="E23" r:id="rId17"/>
+    <hyperlink ref="E24" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E12" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>

--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陆友旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test011b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +651,57 @@
   </si>
   <si>
     <t>wangjian_black_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>获取城市信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bro.flyme.cn/static/tag/convert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":"深圳市"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>宫格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site_square_group
+site_square_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bro.flyme.cn/site_square/list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -848,6 +895,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -861,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -907,6 +963,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1304,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1334,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1296,7 +1361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -1323,7 +1388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -1350,7 +1415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -1377,7 +1442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -1404,7 +1469,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
@@ -1426,7 +1491,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>92</v>
       </c>
@@ -1453,7 +1518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
@@ -1467,7 +1532,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>94</v>
       </c>
@@ -1494,7 +1559,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -1518,8 +1583,10 @@
       <c r="I11" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>129</v>
       </c>
@@ -1543,19 +1610,18 @@
       <c r="I12" s="14">
         <v>200</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>131</v>
@@ -1567,23 +1633,24 @@
         <v>133</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>131</v>
@@ -1595,326 +1662,385 @@
         <v>133</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="132" x14ac:dyDescent="0.15">
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="132" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.15">
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="264" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="264" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="165" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>73</v>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="363" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+    <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="363" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="9" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="9" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="9" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1"/>
     <hyperlink ref="E8" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
@@ -1924,23 +2050,25 @@
     <hyperlink ref="E10" r:id="rId8"/>
     <hyperlink ref="E11" r:id="rId9"/>
     <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11"/>
-    <hyperlink ref="E20" r:id="rId12"/>
-    <hyperlink ref="E18" r:id="rId13"/>
-    <hyperlink ref="E17" r:id="rId14"/>
-    <hyperlink ref="E21" r:id="rId15"/>
-    <hyperlink ref="E22" r:id="rId16"/>
-    <hyperlink ref="E23" r:id="rId17"/>
-    <hyperlink ref="E24" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E27" r:id="rId20"/>
-    <hyperlink ref="E28" r:id="rId21"/>
-    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E17" r:id="rId11"/>
+    <hyperlink ref="E22" r:id="rId12"/>
+    <hyperlink ref="E20" r:id="rId13"/>
+    <hyperlink ref="E19" r:id="rId14"/>
+    <hyperlink ref="E23" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E26" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E29" r:id="rId20"/>
+    <hyperlink ref="E30" r:id="rId21"/>
+    <hyperlink ref="E27" r:id="rId22"/>
     <hyperlink ref="E12" r:id="rId23"/>
     <hyperlink ref="E13" r:id="rId24"/>
     <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="E16" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"ljx_861936030053089","sex":-1,"activeTime":1523326623000}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +72,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,27 +99,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑白名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://bro.flyme.cn/search_engine/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","cityType":"first_city","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag_set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","searchEngine":"360_0630_1","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://reader.meizu.com/android/unauth/v2700/columns/subscribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,18 +250,6 @@
   </si>
   <si>
     <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://reader.meizu.com/android/auth/v2700/columns/subscribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登陆账号获取频道数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,17 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://mp.meizu.com/api/auth/comment/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"businessType":"5","businessId":"1917295907045488308_2_0","businessSubType":"4","content":"不","star":"","image":"","source":"6","materielId":"298200461","sign":"0a722c06eb9fbe7c92b9157ae449a83f"}</t>
-  </si>
-  <si>
     <t>https://mp.meizu.com/api/auth/my/comment/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,32 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei:861936030053089","sn:S25QACP56DK2M",""}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"code":200,"value":"not null"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,32 +418,6 @@
   </si>
   <si>
     <t>data_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC","6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXk","CdSQ10XxQhFp8SZ1ZbU=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"userId":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,10 +547,6 @@
   </si>
   <si>
     <t>http://bro.flyme.cn/static/tag/convert.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -702,6 +579,90 @@
   </si>
   <si>
     <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","cityType":"first_city","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登陆账号获取频道数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/auth/v2700/columns/subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXkCdSQ10XxQhFp8SZ1ZbU=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/comment/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"businessType":"5","businessId":"34175513262088325_76_0","businessSubType":"4","content":"不","star":"","image":"","source":"6","materielId":"298200461","sign":"b5cbb875aea8e5c69487789774f96c0e"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"28","mzos":"0","screen_size":"1080x2098","device_model":"Note9","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"866309040040667","userData":"%7B%22userTag%22%3A%22%22%2C%22activeTime%22%3A1548731652000%2C%22sex%22%3A-1%7D"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -972,6 +933,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,8 +1250,8 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1309,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1321,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -1336,79 +1300,73 @@
     </row>
     <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="3">
@@ -1417,116 +1375,108 @@
     </row>
     <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1534,77 +1484,71 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="14">
@@ -1615,54 +1559,50 @@
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="14"/>
@@ -1671,331 +1611,317 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14">
+        <v>200</v>
+      </c>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="165" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14">
+        <v>200</v>
+      </c>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="9" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -2004,37 +1930,37 @@
     <row r="29" spans="1:11" ht="363" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2053,20 +1979,20 @@
     <hyperlink ref="E17" r:id="rId11"/>
     <hyperlink ref="E22" r:id="rId12"/>
     <hyperlink ref="E20" r:id="rId13"/>
-    <hyperlink ref="E19" r:id="rId14"/>
-    <hyperlink ref="E23" r:id="rId15"/>
-    <hyperlink ref="E24" r:id="rId16"/>
-    <hyperlink ref="E25" r:id="rId17"/>
-    <hyperlink ref="E26" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
-    <hyperlink ref="E29" r:id="rId20"/>
-    <hyperlink ref="E30" r:id="rId21"/>
-    <hyperlink ref="E27" r:id="rId22"/>
-    <hyperlink ref="E12" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="E14" r:id="rId25"/>
-    <hyperlink ref="E16" r:id="rId26"/>
-    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="E23" r:id="rId14"/>
+    <hyperlink ref="E25" r:id="rId15"/>
+    <hyperlink ref="E26" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17"/>
+    <hyperlink ref="E29" r:id="rId18"/>
+    <hyperlink ref="E30" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="E14" r:id="rId23"/>
+    <hyperlink ref="E16" r:id="rId24"/>
+    <hyperlink ref="E15" r:id="rId25"/>
+    <hyperlink ref="E19" r:id="rId26"/>
+    <hyperlink ref="E24" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>基础数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,9 +330,6 @@
     <t>test003</t>
   </si>
   <si>
-    <t>test004</t>
-  </si>
-  <si>
     <t>test005</t>
   </si>
   <si>
@@ -663,6 +656,22 @@
   </si>
   <si>
     <t>{"language":"zh_CN","locale":"CN","os":"28","mzos":"0","screen_size":"1080x2098","device_model":"Note9","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"866309040040667","userData":"%7B%22userTag%22%3A%22%22%2C%22activeTime%22%3A1548731652000%2C%22sex%22%3A-1%7D"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库校验value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"ua_uc,android_uc,desktop_uc,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1273,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1291,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -1300,7 +1309,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1312,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
@@ -1320,12 +1329,12 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1341,16 +1350,16 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -1362,11 +1371,11 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="3">
@@ -1375,7 +1384,7 @@
     </row>
     <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>37</v>
@@ -1391,16 +1400,16 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="I5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1409,592 +1418,618 @@
         <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="H9" s="9"/>
+      <c r="I9" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14">
-        <v>200</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="14" t="s">
-        <v>119</v>
+      <c r="I13" s="14">
+        <v>200</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="14">
+      <c r="H20" s="12"/>
+      <c r="I20" s="14">
         <v>200</v>
       </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="165" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="165" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="264" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="264" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="G25" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14">
+      <c r="H25" s="12"/>
+      <c r="I25" s="14">
         <v>200</v>
       </c>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="9" t="s">
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" ht="363" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="363" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
     <hyperlink ref="E2" r:id="rId6"/>
     <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="E17" r:id="rId11"/>
-    <hyperlink ref="E22" r:id="rId12"/>
-    <hyperlink ref="E20" r:id="rId13"/>
-    <hyperlink ref="E23" r:id="rId14"/>
-    <hyperlink ref="E25" r:id="rId15"/>
-    <hyperlink ref="E26" r:id="rId16"/>
-    <hyperlink ref="E21" r:id="rId17"/>
-    <hyperlink ref="E29" r:id="rId18"/>
-    <hyperlink ref="E30" r:id="rId19"/>
-    <hyperlink ref="E27" r:id="rId20"/>
-    <hyperlink ref="E12" r:id="rId21"/>
-    <hyperlink ref="E13" r:id="rId22"/>
-    <hyperlink ref="E14" r:id="rId23"/>
-    <hyperlink ref="E16" r:id="rId24"/>
-    <hyperlink ref="E15" r:id="rId25"/>
-    <hyperlink ref="E19" r:id="rId26"/>
-    <hyperlink ref="E24" r:id="rId27"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E12" r:id="rId9"/>
+    <hyperlink ref="E8" r:id="rId10"/>
+    <hyperlink ref="E18" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="E24" r:id="rId14"/>
+    <hyperlink ref="E26" r:id="rId15"/>
+    <hyperlink ref="E27" r:id="rId16"/>
+    <hyperlink ref="E22" r:id="rId17"/>
+    <hyperlink ref="E30" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="E28" r:id="rId20"/>
+    <hyperlink ref="E13" r:id="rId21"/>
+    <hyperlink ref="E14" r:id="rId22"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="E17" r:id="rId24"/>
+    <hyperlink ref="E16" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26"/>
+    <hyperlink ref="E25" r:id="rId27"/>
+    <hyperlink ref="E6" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>case_name</t>
   </si>
@@ -104,9 +109,6 @@
     <t>{"language":"zh_CN","locale":"CN","os":"28","mzos":"0","screen_size":"1080x2098","device_model":"Note9","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"866309040040667","userData":"%7B%22userTag%22%3A%22%22%2C%22activeTime%22%3A1548731652000%2C%22sex%22%3A-1%7D"}</t>
   </si>
   <si>
-    <t>test004</t>
-  </si>
-  <si>
     <t>基础数据</t>
   </si>
   <si>
@@ -114,9 +116,6 @@
   </si>
   <si>
     <t>https://bro.flyme.cn/static/base_data/list</t>
-  </si>
-  <si>
-    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
   </si>
   <si>
     <t>test005</t>
@@ -283,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -292,6 +292,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -301,6 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXkCdSQ10XxQhFp8SZ1ZbU=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
@@ -327,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -336,6 +339,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -345,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
@@ -409,6 +414,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -418,6 +424,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token"</t>
@@ -427,6 +434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
@@ -492,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"scope":"basic","client_id":"com.meizu.mzsyncservice","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","</t>
@@ -501,6 +510,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -510,23 +520,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6Ijc2NzgyNDIiLCJ0IjoxNTY2ODc1ODA1ODY2LCJzIjoibnMiLCJjIjoiMSIsInIiOiJ2dklUMHFFbmRiRExwTTZ5UEhsNiIsImEiOiJCOTEyNjNFQjU2Njk1NjVENEZFQ0U2QjY3REUzQkM0NSIsImwiOiIxNzgwMzQwQTA1NkFCODhEQTJGRDFFN0VFMEM1OUYxMCJ9","lang":"zh_CN"}</t>
     </r>
   </si>
+  <si>
+    <t>test004a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查数据库校验value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.2.0","vc":"8002000","firmware_type":"normal"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"ua_uc,android_uc,desktop_uc,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,12 +572,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -552,6 +587,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,166 +596,49 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,194 +651,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1014,261 +747,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1283,28 +777,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,29 +807,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,65 +854,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="超链接 2" xfId="51"/>
-    <cellStyle name="超链接 3" xfId="52"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="4"/>
+    <cellStyle name="超链接 3" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1467,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1502,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,35 +1156,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="$A23:$XFD23"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="54.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.9416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="56.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.7416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.575" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1213,7 @@
       </c>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" ht="82.5" spans="1:9">
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="99" spans="1:9">
+    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1813,7 +1263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="99" spans="1:9">
+    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="99" spans="1:9">
+    <row r="5" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1863,627 +1313,679 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="66" spans="1:9">
+    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>37</v>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="99" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>42</v>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="B15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:11">
-      <c r="A13" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="27">
-        <v>200</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="33" spans="1:11">
-      <c r="A14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:11">
-      <c r="A15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="27">
+        <v>200</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" ht="115.5" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" ht="115.5" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" ht="132" spans="1:9">
+    <row r="19" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>80</v>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="214.5" spans="1:10">
-      <c r="A20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="27">
-        <v>200</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" ht="165" spans="1:9">
+      <c r="J19" s="8"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="27">
+        <v>200</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="297" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="10" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="264" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="22" ht="264" spans="1:9">
-      <c r="A22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="379.5" spans="1:9">
-      <c r="A23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" ht="33" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>103</v>
+      <c r="E24" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="409.5" spans="1:10">
-      <c r="A25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="30">
         <v>200</v>
       </c>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" ht="33" spans="1:9">
+    </row>
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="G26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="10"/>
       <c r="I26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="66" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="49.5" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="27">
+        <v>200</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I28" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" ht="363" spans="1:8">
-      <c r="A30" s="8"/>
+    <row r="29" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="396" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" ht="214.5" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" display="https://reader.meizu.com/android/unauth/v2700/columns/subscribe"/>
-    <hyperlink ref="E9" r:id="rId2" display="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E3" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E2" r:id="rId5" display="http://bro.flyme.cn/bro_setting/get"/>
-    <hyperlink ref="E5" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://bro.flyme.cn/getUserData" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E12" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
-    <hyperlink ref="E8" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://bro.flyme.cn/static/searchEngine/listHotSearch"/>
-    <hyperlink ref="E23" r:id="rId11" display="https://reader.meizu.com/android/newsflow/column"/>
-    <hyperlink ref="E21" r:id="rId12" display="https://reader.meizu.com/android/auth/columns/subscribe/update"/>
-    <hyperlink ref="E24" r:id="rId13" display="http://mp.meizu.com/api/auth/has/message"/>
-    <hyperlink ref="E26" r:id="rId14" display="https://mp.meizu.com/api/auth/my/comment/list"/>
-    <hyperlink ref="E27" r:id="rId15" display="https://mp.meizu.com/api/auth/message"/>
-    <hyperlink ref="E22" r:id="rId16" display="https://reader.meizu.com/android/newsflow/index"/>
-    <hyperlink ref="E30" r:id="rId17" display="https://api.meizu.com/oauth/token"/>
-    <hyperlink ref="E31" r:id="rId18" display="https://api.meizu.com/oauth/clients/uberauth"/>
-    <hyperlink ref="E28" r:id="rId19" display="https://mp.meizu.com/api/comment/list"/>
-    <hyperlink ref="E13" r:id="rId20" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E14" r:id="rId20" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E15" r:id="rId20" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E17" r:id="rId21" display="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E16" r:id="rId22" display="http://bro.flyme.cn/static/tag/convert.do"/>
-    <hyperlink ref="E20" r:id="rId23" display="https://reader.meizu.com/android/auth/v2700/columns/subscribe"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://mp.meizu.com/api/auth/comment/add"/>
-    <hyperlink ref="E4" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E21" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E20" r:id="rId11"/>
+    <hyperlink ref="E25" r:id="rId12"/>
+    <hyperlink ref="E23" r:id="rId13"/>
+    <hyperlink ref="E26" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15"/>
+    <hyperlink ref="E29" r:id="rId16"/>
+    <hyperlink ref="E24" r:id="rId17"/>
+    <hyperlink ref="E32" r:id="rId18"/>
+    <hyperlink ref="E33" r:id="rId19"/>
+    <hyperlink ref="E30" r:id="rId20"/>
+    <hyperlink ref="E15" r:id="rId21"/>
+    <hyperlink ref="E16" r:id="rId22"/>
+    <hyperlink ref="E17" r:id="rId23"/>
+    <hyperlink ref="E19" r:id="rId24"/>
+    <hyperlink ref="E18" r:id="rId25"/>
+    <hyperlink ref="E22" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E4" r:id="rId28" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E7" r:id="rId29"/>
+    <hyperlink ref="E8" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\browser_api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>case_name</t>
   </si>
@@ -222,9 +222,6 @@
     <t>{"city":"深圳市"}</t>
   </si>
   <si>
-    <t>{"code":200}</t>
-  </si>
-  <si>
     <t>test013</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>https://bro.flyme.cn/static/searchEngine/listHotSearch</t>
-  </si>
-  <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","searchEngine":"360_0630_1","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
   </si>
   <si>
     <t>test015</t>
@@ -368,9 +362,6 @@
     <t>https://reader.meizu.com/android/newsflow/index</t>
   </si>
   <si>
-    <t>{"algorithmVersion":"UC--1","cpType":"2","temp_column_cp_source":"2","offset":"0","baiduid":"","browserCardEnabled":"1","temp_load_type":"1","clientReqId":"6daab6b9-ff32-4a30-953b-44eb74dcd534","opType":"1","temp_column_name":"头条","supportSDK":"48","browserCardSex":"1","cpChannelId":"100","cpMark":"0","tags":"","columnId":"-1","ucparam":"{"channelId":100,"cityName":"","ftime":0,"method":"new","recoid":""}","temp_column_id":"-1","v":"8000005","sdkVersion":"2000000","flymeuid":"","nt":"wifi","vn":"8.0.5","deviceinfo":"GYUF2Sirxzm+2a9bGcmDT6iw5nXLOM3HU/rSvZneirrY4DJBrRD+B5gKW8BeAp7eqd/ei0KZxj5Y","o3urC5Z+5onpVNrs4dl3v57IX6o2WareFKlZsS0w1lgzxWPBlHbjVyoi/wM7CRhfl/TGNcH0b2rQ","FaCaA8XMmdllGuE/dJs=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I"}</t>
-  </si>
-  <si>
     <t>test019</t>
   </si>
   <si>
@@ -552,6 +543,14 @@
   </si>
   <si>
     <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"25","mzos":"0","screen_size":"1080x1920","device_model":"M15","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"867343030050385","searchEngine":"ucwy752250"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1165,8 +1164,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1315,7 +1314,7 @@
     </row>
     <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>28</v>
@@ -1331,7 +1330,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
@@ -1340,7 +1339,7 @@
     </row>
     <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
@@ -1356,16 +1355,16 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
@@ -1381,11 +1380,11 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1616,31 +1615,31 @@
         <v>64</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="29" t="s">
-        <v>65</v>
+      <c r="I18" s="29">
+        <v>200</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="29" t="s">
@@ -1649,50 +1648,50 @@
       <c r="J19" s="8"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" s="5" t="s">
-        <v>15</v>
+      <c r="I20" s="5">
+        <v>200</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="5" t="s">
@@ -1701,21 +1700,21 @@
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="27">
@@ -1725,69 +1724,69 @@
     </row>
     <row r="23" spans="1:11" ht="297" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="264" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
+      <c r="I24" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="30">
@@ -1796,46 +1795,46 @@
     </row>
     <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="27">
@@ -1845,22 +1844,22 @@
     </row>
     <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>15</v>
@@ -1868,22 +1867,22 @@
     </row>
     <row r="29" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>15</v>
@@ -1891,21 +1890,21 @@
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="5" t="s">
@@ -1918,37 +1917,37 @@
     <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="396" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1986,6 +1985,6 @@
     <hyperlink ref="E8" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\browser_api_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>case_name</t>
   </si>
@@ -124,16 +124,10 @@
     <t>{"types":"visit_webpage"}</t>
   </si>
   <si>
-    <t>test006</t>
-  </si>
-  <si>
     <t>bloom_config</t>
   </si>
   <si>
     <t>https://bro.flyme.cn/static/bloom_config/listAll</t>
-  </si>
-  <si>
-    <t>无</t>
   </si>
   <si>
     <t>test007</t>
@@ -169,9 +163,6 @@
   </si>
   <si>
     <t>{"imei":"861936030053089"}</t>
-  </si>
-  <si>
-    <t>test010</t>
   </si>
   <si>
     <t>搜索推荐词</t>
@@ -551,6 +542,26 @@
   </si>
   <si>
     <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test006a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test006b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test010a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test010b</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1161,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1314,7 +1325,7 @@
     </row>
     <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>28</v>
@@ -1330,7 +1341,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
@@ -1339,7 +1350,7 @@
     </row>
     <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
@@ -1355,16 +1366,16 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
@@ -1380,11 +1391,11 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1414,577 +1425,630 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="I10" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="5">
+      <c r="I11" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="5">
-        <v>200</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="27">
+      <c r="I14" s="5">
         <v>200</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="28"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5">
+        <v>200</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="27">
+        <v>200</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="29">
-        <v>200</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="5">
+        <v>61</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="29">
         <v>200</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>76</v>
+      <c r="E21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="27">
+      <c r="J21" s="8"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="5">
         <v>200</v>
       </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="297" x14ac:dyDescent="0.15">
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="27">
+        <v>200</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="297" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>98</v>
+      <c r="E26" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="27">
+      <c r="I26" s="5">
         <v>200</v>
       </c>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="G28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="10"/>
       <c r="I28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="27">
+        <v>200</v>
+      </c>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="I30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
+    <row r="31" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="396" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="396" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
     <hyperlink ref="E9" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E2" r:id="rId6"/>
     <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E15" r:id="rId9"/>
     <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E20" r:id="rId11"/>
-    <hyperlink ref="E25" r:id="rId12"/>
-    <hyperlink ref="E23" r:id="rId13"/>
-    <hyperlink ref="E26" r:id="rId14"/>
-    <hyperlink ref="E28" r:id="rId15"/>
-    <hyperlink ref="E29" r:id="rId16"/>
-    <hyperlink ref="E24" r:id="rId17"/>
-    <hyperlink ref="E32" r:id="rId18"/>
-    <hyperlink ref="E33" r:id="rId19"/>
-    <hyperlink ref="E30" r:id="rId20"/>
-    <hyperlink ref="E15" r:id="rId21"/>
-    <hyperlink ref="E16" r:id="rId22"/>
-    <hyperlink ref="E17" r:id="rId23"/>
-    <hyperlink ref="E19" r:id="rId24"/>
-    <hyperlink ref="E18" r:id="rId25"/>
-    <hyperlink ref="E22" r:id="rId26"/>
-    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E27" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="E31" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="E34" r:id="rId18"/>
+    <hyperlink ref="E35" r:id="rId19"/>
+    <hyperlink ref="E32" r:id="rId20"/>
+    <hyperlink ref="E17" r:id="rId21"/>
+    <hyperlink ref="E18" r:id="rId22"/>
+    <hyperlink ref="E19" r:id="rId23"/>
+    <hyperlink ref="E21" r:id="rId24"/>
+    <hyperlink ref="E20" r:id="rId25"/>
+    <hyperlink ref="E24" r:id="rId26"/>
+    <hyperlink ref="E29" r:id="rId27"/>
     <hyperlink ref="E4" r:id="rId28" tooltip="http://bro.flyme.cn/card/get"/>
     <hyperlink ref="E7" r:id="rId29"/>
     <hyperlink ref="E8" r:id="rId30"/>
+    <hyperlink ref="E11" r:id="rId31"/>
+    <hyperlink ref="E16" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1python\bro-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
   <si>
     <t>case_name</t>
   </si>
@@ -378,10 +378,6 @@
     <t>{"source":"6"}</t>
   </si>
   <si>
-    <t>code=200
-value=0\1</t>
-  </si>
-  <si>
     <t>test021</t>
   </si>
   <si>
@@ -562,6 +558,18 @@
   </si>
   <si>
     <t>test010b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test003b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200
+</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1172,11 +1180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1323,25 +1331,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
@@ -1350,7 +1358,7 @@
     </row>
     <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
@@ -1369,13 +1377,13 @@
         <v>126</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="5" t="s">
-        <v>123</v>
+      <c r="I7" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
@@ -1395,12 +1403,12 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>28</v>
@@ -1411,44 +1419,46 @@
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="5">
-        <v>200</v>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -1462,103 +1472,101 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="I11" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>38</v>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5">
+      <c r="H13" s="10"/>
+      <c r="I13" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>44</v>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="5">
-        <v>200</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="5">
         <v>200</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>46</v>
@@ -1572,81 +1580,79 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="5" t="s">
-        <v>123</v>
+      <c r="I16" s="5">
+        <v>200</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="27">
-        <v>200</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="27" t="s">
-        <v>55</v>
+      <c r="I18" s="27">
+        <v>200</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="14"/>
@@ -1654,401 +1660,431 @@
         <v>54</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="J19" s="14"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="29">
-        <v>200</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="29" t="s">
-        <v>15</v>
+      <c r="I21" s="29">
+        <v>200</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="5">
-        <v>200</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>73</v>
+      <c r="E23" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5">
+        <v>200</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="27">
+      <c r="H25" s="14"/>
+      <c r="I25" s="27">
         <v>200</v>
       </c>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="297" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="297" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="5">
+        <v>83</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="20" t="s">
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="30">
+      <c r="H28" s="22"/>
+      <c r="I28" s="30">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
+      <c r="F29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="5" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="F30" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="27">
+        <v>200</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="27">
-        <v>200</v>
-      </c>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="I32" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="396" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="396" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
     <hyperlink ref="E2" r:id="rId6"/>
     <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
-    <hyperlink ref="E27" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="E30" r:id="rId15"/>
-    <hyperlink ref="E31" r:id="rId16"/>
-    <hyperlink ref="E26" r:id="rId17"/>
-    <hyperlink ref="E34" r:id="rId18"/>
-    <hyperlink ref="E35" r:id="rId19"/>
-    <hyperlink ref="E32" r:id="rId20"/>
-    <hyperlink ref="E17" r:id="rId21"/>
-    <hyperlink ref="E18" r:id="rId22"/>
-    <hyperlink ref="E19" r:id="rId23"/>
-    <hyperlink ref="E21" r:id="rId24"/>
-    <hyperlink ref="E20" r:id="rId25"/>
-    <hyperlink ref="E24" r:id="rId26"/>
-    <hyperlink ref="E29" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E23" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="E26" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E31" r:id="rId15"/>
+    <hyperlink ref="E32" r:id="rId16"/>
+    <hyperlink ref="E27" r:id="rId17"/>
+    <hyperlink ref="E35" r:id="rId18"/>
+    <hyperlink ref="E36" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
+    <hyperlink ref="E18" r:id="rId21"/>
+    <hyperlink ref="E19" r:id="rId22"/>
+    <hyperlink ref="E20" r:id="rId23"/>
+    <hyperlink ref="E22" r:id="rId24"/>
+    <hyperlink ref="E21" r:id="rId25"/>
+    <hyperlink ref="E25" r:id="rId26"/>
+    <hyperlink ref="E30" r:id="rId27"/>
     <hyperlink ref="E4" r:id="rId28" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E7" r:id="rId29"/>
-    <hyperlink ref="E8" r:id="rId30"/>
-    <hyperlink ref="E11" r:id="rId31"/>
-    <hyperlink ref="E16" r:id="rId32"/>
+    <hyperlink ref="E8" r:id="rId29"/>
+    <hyperlink ref="E9" r:id="rId30"/>
+    <hyperlink ref="E12" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="E6" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1python\bro-api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\browser_api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="138">
   <si>
     <t>case_name</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>http://bro.flyme.cn/bro_setting/get</t>
-  </si>
-  <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"ljx_861936030053089","sex":-1,"activeTime":1523326623000}"}</t>
   </si>
   <si>
     <t>{"code":200,"value":"not null"}</t>
@@ -443,9 +440,6 @@
     <t>https://mp.meizu.com/api/auth/message</t>
   </si>
   <si>
-    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
-  </si>
-  <si>
     <t>test024</t>
   </si>
   <si>
@@ -533,10 +527,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"25","mzos":"0","screen_size":"1080x1920","device_model":"M15","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"867343030050385","searchEngine":"ucwy752250"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -570,6 +560,22 @@
   <si>
     <t xml:space="preserve">200
 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{'userTag':'ljx_861936030053089','sex':-1,'activeTime':1523326623000}"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":24,"mzos":0,"screen_size":"1440x2560","device_model":"PRO7Plus","v":"8.2.0","vc":8002000,"firmware_type":"normal","imei":"863098030135628","searchEngine":"sogou","userData":"{'userTag':'','sex':-1,'activeTime':1523519338000}"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MSIsInQiOjE1NjgxOTk2Nzk4NDgsInMiOiJucyIsImMiOiIxIiwiciI6IlBLVEMybXBiZVdMTFpoTHhXTjV3IiwiYSI6IjAzQTNCQUI4MUREMzIxRjM0NDFCNjVDMEVBOEQ2Mzg0IiwibCI6IkI4MzY0OEExMDAxNDc4RkZCMDYwMEMzRjlDRDREMDZDIn0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?noActionBar=false","sn":"793QBDQQ2223J"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1183,8 +1189,8 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1194,7 +1200,7 @@
     <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="54.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50" style="2" customWidth="1"/>
     <col min="7" max="7" width="56.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.625" style="5" customWidth="1"/>
@@ -1249,32 +1255,32 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
+      <c r="I2" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="5">
@@ -1283,48 +1289,48 @@
     </row>
     <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="5">
@@ -1333,23 +1339,23 @@
     </row>
     <row r="6" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
@@ -1358,23 +1364,23 @@
     </row>
     <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5">
@@ -1383,96 +1389,96 @@
     </row>
     <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
+      <c r="I10" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="5">
@@ -1481,46 +1487,46 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="5">
@@ -1529,13 +1535,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1543,21 +1549,21 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="5">
@@ -1566,21 +1572,21 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="5">
@@ -1591,46 +1597,46 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="27">
@@ -1641,50 +1647,50 @@
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="D19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="27"/>
@@ -1693,21 +1699,21 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="29">
@@ -1718,50 +1724,50 @@
     </row>
     <row r="22" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="5">
@@ -1772,44 +1778,44 @@
     </row>
     <row r="24" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="27">
@@ -1819,46 +1825,46 @@
     </row>
     <row r="26" spans="1:11" ht="297" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="5">
@@ -1867,21 +1873,21 @@
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="30">
@@ -1890,48 +1896,48 @@
     </row>
     <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="27">
@@ -1941,71 +1947,73 @@
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="165" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2014,37 +2022,37 @@
     <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="396" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\browser_api_test\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
   <si>
     <t>case_name</t>
   </si>
@@ -64,7 +59,7 @@
     <t>http://bro.flyme.cn/bro_setting/get</t>
   </si>
   <si>
-    <t>{"code":200,"value":"not null"}</t>
+    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{'userTag':'ljx_861936030053089','sex':-1,'activeTime':1523326623000}"}</t>
   </si>
   <si>
     <t>test002</t>
@@ -88,7 +83,16 @@
     <t>test002a</t>
   </si>
   <si>
-    <t>{"title": "热门小说"}</t>
+    <t>{'title': '热门小说'}</t>
+  </si>
+  <si>
+    <t>test002b</t>
+  </si>
+  <si>
+    <t>校验数据的值</t>
+  </si>
+  <si>
+    <t>热门小说</t>
   </si>
   <si>
     <t>test003</t>
@@ -106,6 +110,12 @@
     <t>{"language":"zh_CN","locale":"CN","os":"28","mzos":"0","screen_size":"1080x2098","device_model":"Note9","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"866309040040667","userData":"%7B%22userTag%22%3A%22%22%2C%22activeTime%22%3A1548731652000%2C%22sex%22%3A-1%7D"}</t>
   </si>
   <si>
+    <t>test003b</t>
+  </si>
+  <si>
+    <t>test004a</t>
+  </si>
+  <si>
     <t>基础数据</t>
   </si>
   <si>
@@ -115,16 +125,43 @@
     <t>https://bro.flyme.cn/static/base_data/list</t>
   </si>
   <si>
+    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
+  </si>
+  <si>
+    <t>test004b</t>
+  </si>
+  <si>
+    <t>{"types":"ua_uc,android_uc,desktop_uc,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal"}</t>
+  </si>
+  <si>
+    <t>查数据库校验value</t>
+  </si>
+  <si>
+    <t>test004c</t>
+  </si>
+  <si>
+    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.2.0","vc":"8002000","firmware_type":"normal"}</t>
+  </si>
+  <si>
     <t>test005</t>
   </si>
   <si>
     <t>{"types":"visit_webpage"}</t>
   </si>
   <si>
+    <t>test006a</t>
+  </si>
+  <si>
     <t>bloom_config</t>
   </si>
   <si>
     <t>https://bro.flyme.cn/static/bloom_config/listAll</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>test006b</t>
   </si>
   <si>
     <t>test007</t>
@@ -144,6 +181,18 @@
     <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3X","v":"8.1.0","vc":"8001000","firmware_type":"normal","cityType":"first_city","imei":"862843030001515","userData":"%7B%22userTag%22%3A%22%22%2C%22sex%22%3A-1%2C%22activeTime%22%3A15262800"}</t>
   </si>
   <si>
+    <t>test007a</t>
+  </si>
+  <si>
+    <t>{'home_page': 'sm.cn'}</t>
+  </si>
+  <si>
+    <t>test007b</t>
+  </si>
+  <si>
+    <t>sm.cn</t>
+  </si>
+  <si>
     <t>test008</t>
   </si>
   <si>
@@ -162,10 +211,16 @@
     <t>{"imei":"861936030053089"}</t>
   </si>
   <si>
+    <t>test010a</t>
+  </si>
+  <si>
     <t>搜索推荐词</t>
   </si>
   <si>
     <t>http://bro.flyme.cn/static/search_suggest/list</t>
+  </si>
+  <si>
+    <t>test010b</t>
   </si>
   <si>
     <t>test011a</t>
@@ -226,6 +281,24 @@
     <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal","imei":"861936030053089","userData":"{"userTag":"掌阅用户180823&amp;掌阅用户180921&amp;ljx_861936030053089&amp;掌阅用户181012&amp;54w一点资讯1218&amp;300万半年前主切用户&amp;现金任务第一期4w","sex":1,"activeTime":1514735999000}"}</t>
   </si>
   <si>
+    <t>{"code":200,"value":"not null"}</t>
+  </si>
+  <si>
+    <t>test013a</t>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":"22","mzos":"5","screen_size":"1080x1920","device_model":"PRO5","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"867905020033587","userData":"%7B%22userTag%22%3A%22%22%2C%22sex%22%3A-1%2C%22activeTime%22%3A15262800"}</t>
+  </si>
+  <si>
+    <t>{'title': '网址导航'}</t>
+  </si>
+  <si>
+    <t>test013b</t>
+  </si>
+  <si>
+    <t>网址导航</t>
+  </si>
+  <si>
     <t>test014</t>
   </si>
   <si>
@@ -236,6 +309,9 @@
   </si>
   <si>
     <t>https://bro.flyme.cn/static/searchEngine/listHotSearch</t>
+  </si>
+  <si>
+    <t>{"language":"zh_CN","locale":"CN","os":24,"mzos":0,"screen_size":"1440x2560","device_model":"PRO7Plus","v":"8.2.0","vc":8002000,"firmware_type":"normal","imei":"863098030135628","searchEngine":"sogou","userData":"{'userTag':'','sex':-1,'activeTime':1523519338000}"}</t>
   </si>
   <si>
     <t>test015</t>
@@ -264,7 +340,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -274,7 +349,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -284,7 +358,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXkCdSQ10XxQhFp8SZ1ZbU=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
@@ -311,7 +384,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -321,7 +393,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -331,7 +402,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
@@ -350,6 +420,9 @@
     <t>https://reader.meizu.com/android/newsflow/index</t>
   </si>
   <si>
+    <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
+  </si>
+  <si>
     <t>test019</t>
   </si>
   <si>
@@ -372,7 +445,14 @@
     <t>http://mp.meizu.com/api/auth/has/message</t>
   </si>
   <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+  </si>
+  <si>
     <t>{"source":"6"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200
+</t>
   </si>
   <si>
     <t>test021</t>
@@ -389,7 +469,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -399,7 +478,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token"</t>
@@ -409,7 +487,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>:"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
@@ -428,7 +505,10 @@
     <t>https://mp.meizu.com/api/auth/my/comment/list</t>
   </si>
   <si>
-    <t>{"source":"6","count":"10","offset":"0","videoCpId":"-1"}</t>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MyIsInQiOjE1NjgyNzIzNDA2MjUsInMiOiJucyIsImMiOiIxIiwiciI6Imh4Y2FpVXo1V2ZkNDFRNk42QkV5IiwiYSI6IjhGQkJDNjYyMkEzRDlCNjlEQUY3Qjk1QjE3NkFERTY2IiwibCI6IkEyNzJEOUQ2NDVBRUU4QTU1ODRCMDYzQzkyNjBDMEU3In0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?sourceId=6&amp;noActionBar=false","sn":"793QBDQQ2223J"}</t>
+  </si>
+  <si>
+    <t>{"source":6,"count":10,"offset":0,"videoCpId":-1}</t>
   </si>
   <si>
     <t>test023</t>
@@ -438,6 +518,12 @@
   </si>
   <si>
     <t>https://mp.meizu.com/api/auth/message</t>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MSIsInQiOjE1NjgxOTk2Nzk4NDgsInMiOiJucyIsImMiOiIxIiwiciI6IlBLVEMybXBiZVdMTFpoTHhXTjV3IiwiYSI6IjAzQTNCQUI4MUREMzIxRjM0NDFCNjVDMEVBOEQ2Mzg0IiwibCI6IkI4MzY0OEExMDAxNDc4RkZCMDYwMEMzRjlDRDREMDZDIn0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?noActionBar=false","sn":"793QBDQQ2223J"}</t>
+  </si>
+  <si>
+    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
   </si>
   <si>
     <t>test024</t>
@@ -472,7 +558,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"scope":"basic","client_id":"com.meizu.mzsyncservice","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","</t>
@@ -482,7 +567,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -492,98 +576,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6Ijc2NzgyNDIiLCJ0IjoxNTY2ODc1ODA1ODY2LCJzIjoibnMiLCJjIjoiMSIsInIiOiJ2dklUMHFFbmRiRExwTTZ5UEhsNiIsImEiOiJCOTEyNjNFQjU2Njk1NjVENEZFQ0U2QjY3REUzQkM0NSIsImwiOiIxNzgwMzQwQTA1NkFCODhEQTJGRDFFN0VFMEM1OUYxMCJ9","lang":"zh_CN"}</t>
     </r>
   </si>
-  <si>
-    <t>test004a</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test004b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>查数据库校验value</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test004c</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.2.0","vc":"8002000","firmware_type":"normal"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"types":"ua_uc,android_uc,desktop_uc,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"7.12.0","vc":"7012000","firmware_type":"normal"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"types":"android_360,search_engine,wangjian","language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test006a</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test006b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test010a</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test010b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test003b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"language":"zh_CN","locale":"CN","os":"23","mzos":"0","screen_size":"1080x1920","device_model":"M3Max","v":"8.1.0","vc":"8001000","firmware_type":"normal","imei":"861936030053089","userData":"{'userTag':'ljx_861936030053089','sex':-1,'activeTime':1523326623000}"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"language":"zh_CN","locale":"CN","os":24,"mzos":0,"screen_size":"1440x2560","device_model":"PRO7Plus","v":"8.2.0","vc":8002000,"firmware_type":"normal","imei":"863098030135628","searchEngine":"sogou","userData":"{'userTag':'','sex':-1,'activeTime':1523519338000}"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MSIsInQiOjE1NjgxOTk2Nzk4NDgsInMiOiJucyIsImMiOiIxIiwiciI6IlBLVEMybXBiZVdMTFpoTHhXTjV3IiwiYSI6IjAzQTNCQUI4MUREMzIxRjM0NDFCNjVDMEVBOEQ2Mzg0IiwibCI6IkI4MzY0OEExMDAxNDc4RkZCMDYwMEMzRjlDRDREMDZDIn0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?noActionBar=false","sn":"793QBDQQ2223J"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,14 +605,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -611,7 +624,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -620,14 +632,20 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -635,34 +653,160 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +819,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -771,129 +1101,417 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="4"/>
-    <cellStyle name="超链接 3" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="超链接 2" xfId="51"/>
+    <cellStyle name="超链接 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -942,7 +1560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,7 +1595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1180,34 +1798,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="54.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="54.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50" style="4" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1232,12 +1851,12 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" ht="82.5" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1255,14 +1874,14 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+    <row r="3" ht="99" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1287,812 +1906,965 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="1" ht="99" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="1" ht="99" spans="1:10">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="6" ht="99" spans="1:9">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="7" ht="99" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+    <row r="8" ht="66" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.15">
+      <c r="I8" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="66" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="66" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>29</v>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>33</v>
+      <c r="E11" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
+      <c r="E12" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+      <c r="I12" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
+      <c r="E13" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5">
+    </row>
+    <row r="14" ht="99" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5">
+    <row r="15" s="2" customFormat="1" ht="99" spans="1:10">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="99" spans="1:10">
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="5">
+      <c r="H19" s="10"/>
+      <c r="I19" s="5">
         <v>200</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="27">
+      <c r="H20" s="10"/>
+      <c r="I20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:11">
+      <c r="A21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="30">
         <v>200</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="29">
-        <v>200</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="33" spans="1:11">
+      <c r="A22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5">
-        <v>200</v>
-      </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:11">
+      <c r="A23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>72</v>
+      <c r="E24" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="27">
+        <v>80</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="32">
         <v>200</v>
       </c>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="297" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" ht="115.5" spans="1:11">
+      <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="313.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="J25" s="8"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="82.5" spans="1:10">
+      <c r="A26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="5">
+      <c r="B26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="82.5" spans="1:10">
+      <c r="A27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" ht="82.5" spans="1:11">
+      <c r="A28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" ht="132" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="E29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="214.5" spans="1:10">
+      <c r="A30" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="30">
         <v>200</v>
       </c>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" ht="280.5" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="H31" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="165" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" ht="313.5" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+    <row r="33" s="2" customFormat="1" ht="379.5" spans="1:9">
+      <c r="A33" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="396" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>80</v>
+        <v>118</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" ht="115.5" spans="1:9">
+      <c r="A34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="115.5" spans="1:10">
+      <c r="A35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="30">
+        <v>200</v>
+      </c>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="165" spans="1:9">
+      <c r="A36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" ht="165" spans="1:9">
+      <c r="A37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" ht="49.5" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" ht="409.5" spans="1:8">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" ht="379.5" spans="1:8">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E13" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E2" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E16" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E23" r:id="rId11"/>
-    <hyperlink ref="E28" r:id="rId12"/>
-    <hyperlink ref="E26" r:id="rId13"/>
-    <hyperlink ref="E29" r:id="rId14"/>
-    <hyperlink ref="E31" r:id="rId15"/>
-    <hyperlink ref="E32" r:id="rId16"/>
-    <hyperlink ref="E27" r:id="rId17"/>
-    <hyperlink ref="E35" r:id="rId18"/>
-    <hyperlink ref="E36" r:id="rId19"/>
-    <hyperlink ref="E33" r:id="rId20"/>
-    <hyperlink ref="E18" r:id="rId21"/>
-    <hyperlink ref="E19" r:id="rId22"/>
-    <hyperlink ref="E20" r:id="rId23"/>
-    <hyperlink ref="E22" r:id="rId24"/>
-    <hyperlink ref="E21" r:id="rId25"/>
-    <hyperlink ref="E25" r:id="rId26"/>
-    <hyperlink ref="E30" r:id="rId27"/>
-    <hyperlink ref="E4" r:id="rId28" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E8" r:id="rId29"/>
-    <hyperlink ref="E9" r:id="rId30"/>
-    <hyperlink ref="E12" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="E6" r:id="rId33"/>
+    <hyperlink ref="E29" r:id="rId1" display="https://reader.meizu.com/android/unauth/v2700/columns/subscribe"/>
+    <hyperlink ref="E14" r:id="rId2" display="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E3" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E11" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
+    <hyperlink ref="E2" r:id="rId5" display="http://bro.flyme.cn/bro_setting/get"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://bro.flyme.cn/getUserData" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E19" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
+    <hyperlink ref="E28" r:id="rId10" display="https://bro.flyme.cn/static/searchEngine/listHotSearch"/>
+    <hyperlink ref="E31" r:id="rId11" display="https://reader.meizu.com/android/auth/columns/subscribe/update"/>
+    <hyperlink ref="E34" r:id="rId12" display="http://mp.meizu.com/api/auth/has/message"/>
+    <hyperlink ref="E37" r:id="rId13" display="https://mp.meizu.com/api/auth/message"/>
+    <hyperlink ref="E32" r:id="rId14" display="https://reader.meizu.com/android/newsflow/index"/>
+    <hyperlink ref="E40" r:id="rId15" display="https://api.meizu.com/oauth/token"/>
+    <hyperlink ref="E41" r:id="rId16" display="https://api.meizu.com/oauth/clients/uberauth"/>
+    <hyperlink ref="E38" r:id="rId17" display="https://mp.meizu.com/api/comment/list"/>
+    <hyperlink ref="E21" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
+    <hyperlink ref="E22" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
+    <hyperlink ref="E23" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
+    <hyperlink ref="E25" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E24" r:id="rId20" display="http://bro.flyme.cn/static/tag/convert.do"/>
+    <hyperlink ref="E30" r:id="rId21" display="https://reader.meizu.com/android/auth/v2700/columns/subscribe"/>
+    <hyperlink ref="E35" r:id="rId22" display="https://mp.meizu.com/api/auth/comment/add"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
+    <hyperlink ref="E20" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
+    <hyperlink ref="E36" r:id="rId23" display="https://mp.meizu.com/api/auth/my/comment/list"/>
+    <hyperlink ref="E33" r:id="rId24" display="https://reader.meizu.com/android/newsflow/column"/>
+    <hyperlink ref="E26" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E27" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E15" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E16" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E5" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\browser_api_test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>case_name</t>
   </si>
@@ -44,9 +49,6 @@
   </si>
   <si>
     <t>test001</t>
-  </si>
-  <si>
-    <t>配置项</t>
   </si>
   <si>
     <t>browser_setting_key
@@ -256,9 +258,6 @@
     <t>test012</t>
   </si>
   <si>
-    <t>获取城市信息</t>
-  </si>
-  <si>
     <t>http://bro.flyme.cn/static/tag/convert.do</t>
   </si>
   <si>
@@ -306,9 +305,6 @@
   </si>
   <si>
     <t>cp_hot_search_list</t>
-  </si>
-  <si>
-    <t>https://bro.flyme.cn/static/searchEngine/listHotSearch</t>
   </si>
   <si>
     <t>{"language":"zh_CN","locale":"CN","os":24,"mzos":0,"screen_size":"1440x2560","device_model":"PRO7Plus","v":"8.2.0","vc":8002000,"firmware_type":"normal","imei":"863098030135628","searchEngine":"sogou","userData":"{'userTag':'','sex':-1,'activeTime':1523519338000}"}</t>
@@ -414,9 +410,6 @@
     <t>test018</t>
   </si>
   <si>
-    <t>推荐频道资讯流</t>
-  </si>
-  <si>
     <t>https://reader.meizu.com/android/newsflow/index</t>
   </si>
   <si>
@@ -514,9 +507,6 @@
     <t>test023</t>
   </si>
   <si>
-    <t>获取我的消息</t>
-  </si>
-  <si>
     <t>https://mp.meizu.com/api/auth/message</t>
   </si>
   <si>
@@ -581,18 +571,68 @@
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6Ijc2NzgyNDIiLCJ0IjoxNTY2ODc1ODA1ODY2LCJzIjoibnMiLCJjIjoiMSIsInIiOiJ2dklUMHFFbmRiRExwTTZ5UEhsNiIsImEiOiJCOTEyNjNFQjU2Njk1NjVENEZFQ0U2QjY3REUzQkM0NSIsImwiOiIxNzgwMzQwQTA1NkFCODhEQTJGRDFFN0VFMEM1OUYxMCJ9","lang":"zh_CN"}</t>
     </r>
   </si>
+  <si>
+    <t>https://bro.flyme.cn/static/searchEngine/listHotSearch</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"value":"not null"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索热词</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的消息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐频道资讯流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取城市信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,143 +700,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,8 +709,21 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,194 +736,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1101,251 +832,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,9 +845,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1370,40 +862,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,23 +904,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,66 +944,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="超链接 2" xfId="51"/>
-    <cellStyle name="超链接 3" xfId="52"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="4"/>
+    <cellStyle name="超链接 3" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1798,21 +1256,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="4" customWidth="1"/>
@@ -1826,7 +1283,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1856,442 +1313,442 @@
       </c>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" ht="82.5" spans="1:9">
+    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="99" spans="1:9">
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="99" spans="1:9">
+    <row r="4" spans="1:10" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" ht="99" spans="1:10">
-      <c r="A5" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" ht="99" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="99" spans="1:9">
+    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:9">
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="66" spans="1:9">
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="66" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" ht="66" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="99" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="99" spans="1:10">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="99" spans="1:10">
-      <c r="A16" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="5">
@@ -2300,48 +1757,48 @@
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:11">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="30">
@@ -2350,75 +1807,75 @@
       <c r="J21" s="18"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="33" spans="1:11">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="D22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:11">
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="D23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="30"/>
       <c r="J23" s="18"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="32">
@@ -2427,444 +1884,472 @@
       <c r="J24" s="8"/>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" ht="115.5" spans="1:11">
+    <row r="25" spans="1:11" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="32" t="s">
-        <v>86</v>
+      <c r="I25" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="82.5" spans="1:10">
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="82.5" spans="1:10">
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" ht="82.5" spans="1:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="I28" s="5">
-        <v>200</v>
+      <c r="I28" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" ht="132" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>97</v>
+    <row r="29" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="D29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="214.5" spans="1:10">
-      <c r="A30" s="18" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="30">
+        <v>200</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="297" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="B32" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="30">
-        <v>200</v>
-      </c>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" ht="280.5" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" ht="313.5" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="313.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="5">
+      <c r="H34" s="12"/>
+      <c r="I34" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="379.5" spans="1:9">
-      <c r="A33" s="12" t="s">
+    <row r="35" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="F35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="27">
+      <c r="G35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="30">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" ht="115.5" spans="1:9">
-      <c r="A34" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="115.5" spans="1:10">
-      <c r="A35" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="F37" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="30">
+      <c r="G37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="27">
         <v>200</v>
       </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="165" spans="1:9">
-      <c r="A36" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" ht="165" spans="1:9">
-      <c r="A37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" ht="49.5" spans="1:9">
-      <c r="A38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>142</v>
+      <c r="B38" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" ht="409.5" spans="1:8">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" ht="379.5" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="396" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" display="https://reader.meizu.com/android/unauth/v2700/columns/subscribe"/>
-    <hyperlink ref="E14" r:id="rId2" display="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E3" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E11" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E2" r:id="rId5" display="http://bro.flyme.cn/bro_setting/get"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
-    <hyperlink ref="E18" r:id="rId7" display="https://bro.flyme.cn/getUserData" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E19" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
-    <hyperlink ref="E28" r:id="rId10" display="https://bro.flyme.cn/static/searchEngine/listHotSearch"/>
-    <hyperlink ref="E31" r:id="rId11" display="https://reader.meizu.com/android/auth/columns/subscribe/update"/>
-    <hyperlink ref="E34" r:id="rId12" display="http://mp.meizu.com/api/auth/has/message"/>
-    <hyperlink ref="E37" r:id="rId13" display="https://mp.meizu.com/api/auth/message"/>
-    <hyperlink ref="E32" r:id="rId14" display="https://reader.meizu.com/android/newsflow/index"/>
-    <hyperlink ref="E40" r:id="rId15" display="https://api.meizu.com/oauth/token"/>
-    <hyperlink ref="E41" r:id="rId16" display="https://api.meizu.com/oauth/clients/uberauth"/>
-    <hyperlink ref="E38" r:id="rId17" display="https://mp.meizu.com/api/comment/list"/>
-    <hyperlink ref="E21" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E22" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E23" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E25" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E24" r:id="rId20" display="http://bro.flyme.cn/static/tag/convert.do"/>
-    <hyperlink ref="E30" r:id="rId21" display="https://reader.meizu.com/android/auth/v2700/columns/subscribe"/>
-    <hyperlink ref="E35" r:id="rId22" display="https://mp.meizu.com/api/auth/comment/add"/>
-    <hyperlink ref="E9" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
-    <hyperlink ref="E20" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
-    <hyperlink ref="E36" r:id="rId23" display="https://mp.meizu.com/api/auth/my/comment/list"/>
-    <hyperlink ref="E33" r:id="rId24" display="https://reader.meizu.com/android/newsflow/column"/>
-    <hyperlink ref="E26" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E27" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E15" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E16" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E4" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E5" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E19" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="E32" r:id="rId12"/>
+    <hyperlink ref="E35" r:id="rId13"/>
+    <hyperlink ref="E38" r:id="rId14"/>
+    <hyperlink ref="E33" r:id="rId15"/>
+    <hyperlink ref="E41" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
+    <hyperlink ref="E39" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E31" r:id="rId24"/>
+    <hyperlink ref="E36" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId26"/>
+    <hyperlink ref="E10" r:id="rId27"/>
+    <hyperlink ref="E13" r:id="rId28"/>
+    <hyperlink ref="E20" r:id="rId29"/>
+    <hyperlink ref="E7" r:id="rId30"/>
+    <hyperlink ref="E37" r:id="rId31"/>
+    <hyperlink ref="E34" r:id="rId32"/>
+    <hyperlink ref="E26" r:id="rId33" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E27" r:id="rId34" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E15" r:id="rId35" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E16" r:id="rId36" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E4" r:id="rId37" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E5" r:id="rId38" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E29" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
   <si>
     <t>case_name</t>
   </si>
@@ -316,6 +321,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>test014</t>
@@ -325,25 +331,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
     </r>
   </si>
   <si>
-    <t>test015</t>
-  </si>
-  <si>
     <t>未登陆账号获取频道数据</t>
   </si>
   <si>
     <t>https://reader.meizu.com/android/unauth/v2700/columns/subscribe</t>
-  </si>
-  <si>
-    <t>{"supportSDK":"48","videoVersion":"7011001","v":"7012000","sdkVersion":"1001004","flymeuid":"","nt":"wifi","vn":"7.12.0","deviceinfo":"If/JiY3Vuyw0ugRAt67MBiH1meVzHOQJxJp00KMF1F/5TUG1QygNRmYC2eVCX60Lrm0Wep148uxI","epvp4TrTLHPpGckyhKOMo7fLaaoUXdiP8W6X8qf1sznQygj3UPwFlumsr73oHv2hzOogdpzZI1C9","24jaZQ4v1UIeUbSlRqk=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.29.60.58","os":"6.0-1517987373_I"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"value":"not null"}</t>
   </si>
   <si>
     <t>test016</t>
@@ -360,6 +358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -369,6 +368,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -378,15 +378,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY4NzMxOTc0ODMsInMiOiJucyIsImMiOiIxIiwiciI6Ikw2T3ZBWktKUktlNEh6Zm50ZGlVIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IjVGQkQzRTE3NTE4QzU1NzdFQTFBMzgzRUY1MUQxMzM2In0","supportSDK":"48","videoVersion":"7011001","v":"8001000","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.1.0","deviceinfo":"kzUyLtPx5lgl5Rsv3p2XwRx5ihynmNSTUGfFo9EAhyYMPvvkSgTBsS77a2CYvT2bgkbEl+tj9XIC6lwtQFwVuvO4QshspDKee64RnD10+kYKujc/HSuIF7sLNpmzmF3RJ20XALGL2MUB+6dDFnUT2iXkCdSQ10XxQhFp8SZ1ZbU=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"","os":"6.0-1517987373_I"}</t>
     </r>
   </si>
   <si>
-    <t>test017</t>
-  </si>
-  <si>
     <t>同步频道数据</t>
   </si>
   <si>
@@ -396,7 +394,57 @@
     <t>https://reader.meizu.com/android/auth/columns/subscribe/update</t>
   </si>
   <si>
-    <t>{"v":"8000005","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.0.5","deviceinfo":"j+kuJDOuZEzmwERbCsxpUO9FJlwHJcgyYiHuQgw1HS+Hdf0LAtvt8Dauyn+AjtghddbxcQWZvy1j","+OnyPQWOwDHo4MXKApRjyZgyaCAwnjgL9WwU6XLk3Sk6uB5VdvRtyI80CVhn+XYxTSML/2ztYxJO","nucKLDeDRCaZb9UHwyQ=","","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I"}</t>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>推荐频道资讯流</t>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/newsflow/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>非推荐频道资讯流</t>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/newsflow/column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{"articleId":"1567686289958200","lastReqId":"","algorithmVersion":"JINRITOUTIAO-46","cpType":"84","putdate":"1567587960000","temp_column_cp_source":"84","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"758c13f2-89e0-458c-91dc-af4a544207d1","opType":"3","temp_column_name":"%E8%A7%86%E9%A2%91&amp;supportSDK=48","browserCardSex":"-1","cpChannelId":"46","cpMark":"7","tags":"","columnId":"46","ucparam":"%7B%22channelId%22%3A46%2C%22cityName%22%3A%22%22%2C%22ftime%22%3A0%2C%22method%22%3A%22new%22%2C%22recoid%22%3A%22%22%7D","temp_column_id":"46","goldVersion":"1000000","v":"8002000","sdkVersion":"2002000","flymeuid":"113535901","nt":"wifi","vn":"8.2.0","deviceinfo":"K5tW96U381UAnuksQ%2Brlgj4y2j4mby1XHAhMn3eQ0lhI%2FlLrmCcNmvRWZHrNK6BVGfqyVWbw%2BoJF%0A8U9ODWoigmevBgILfNL4bvUpM8GDFFzQUs%2F02TRqcov3KyyuSblqIRMU0GmBPhGWZdrSdREj7QcU%0AIVnkOe7AwzN4HXhHcfE%3D%0A","pkgName":"com.android.browser","deviceType":"M576","ip":"","os":"5.1-1479146976_stable"}</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+  </si>
+  <si>
+    <t>http://mp.meizu.com/api/auth/has/message</t>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+  </si>
+  <si>
+    <t>{"source":"6"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>添加评论</t>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/comment/add</t>
   </si>
   <si>
     <r>
@@ -404,6 +452,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{"</t>
@@ -413,6 +462,96 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access_token"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"businessType":"5","businessId":"34175513262088325_76_0","businessSubType":"4","content":"不","star":"","image":"","source":"6","materielId":"298200461","sign":"b5cbb875aea8e5c69487789774f96c0e"}</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>获取我的评论</t>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/my/comment/list</t>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MyIsInQiOjE1NjgyNzIzNDA2MjUsInMiOiJucyIsImMiOiIxIiwiciI6Imh4Y2FpVXo1V2ZkNDFRNk42QkV5IiwiYSI6IjhGQkJDNjYyMkEzRDlCNjlEQUY3Qjk1QjE3NkFERTY2IiwibCI6IkEyNzJEOUQ2NDVBRUU4QTU1ODRCMDYzQzkyNjBDMEU3In0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?sourceId=6&amp;noActionBar=false","sn":"793QBDQQ2223J"}</t>
+  </si>
+  <si>
+    <t>{"source":6,"count":10,"offset":0,"videoCpId":-1}</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>获取我的消息</t>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/auth/message</t>
+  </si>
+  <si>
+    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MSIsInQiOjE1NjgxOTk2Nzk4NDgsInMiOiJucyIsImMiOiIxIiwiciI6IlBLVEMybXBiZVdMTFpoTHhXTjV3IiwiYSI6IjAzQTNCQUI4MUREMzIxRjM0NDFCNjVDMEVBOEQ2Mzg0IiwibCI6IkI4MzY0OEExMDAxNDc4RkZCMDYwMEMzRjlDRDREMDZDIn0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?noActionBar=false","sn":"793QBDQQ2223J"}</t>
+  </si>
+  <si>
+    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
+  </si>
+  <si>
+    <t>获取文章评论</t>
+  </si>
+  <si>
+    <t>https://mp.meizu.com/api/comment/list</t>
+  </si>
+  <si>
+    <t>{"businessType":"5","businessId":"0N3ZBRxL_81_0","businessSubType":"4","offset":"10","count":"10","materielId":"71438959"}</t>
+  </si>
+  <si>
+    <t>登陆账号</t>
+  </si>
+  <si>
+    <t>https://api.meizu.com/oauth/token</t>
+  </si>
+  <si>
+    <t>{"scope":"trust","remember_me":"SxxgfatrTdka0oov-7sc2UP91GZTZHDU_obpqEanTJZWGnE3tfWat9sbUBIU-AVO-e_S21SzLKOFU0oLC9piUShm0F9_19ksQiXPIWB2QrERdNuvpt1f_Y5y-d_xYsLryktwzqr1hI_LI5YsKaH_yGguqB5nnc2nMnLHZBmoooI*MmF9yTI2Zz5QKCUBtbR83QXGbmO2O3FBko2t9dLpwSI7hvcVloTbLjjqEw1WJ_F0bqCQf6E2uK3CAbJXgrmQravf3kvhwFJ3HbMkM_8EHXJSdhyHlceH37gjz915w6oEa8HsCkAb--lTvvSlmNIDw7hzoWSdhzhDbMzaW4fuQeQ","client_id":"KzA76k3lBCYDqKTy6VYvb9WR6QSUWVGJ","client_secret":"G22l4Wj22DT9tKawFqi5x13w0TTalxxv","info":"base","grant_type":"remember_me","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","lang":"zh_CN"}</t>
+  </si>
+  <si>
+    <t>获取token</t>
+  </si>
+  <si>
+    <t>https://api.meizu.com/oauth/clients/uberauth</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"scope":"basic","client_id":"com.meizu.mzsyncservice","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>access_token</t>
@@ -422,197 +561,70 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
-    </r>
-  </si>
-  <si>
-    <t>{"code":200,"value":"ok"}</t>
-  </si>
-  <si>
-    <t>test018</t>
-  </si>
-  <si>
-    <t>推荐频道资讯流</t>
-  </si>
-  <si>
-    <t>https://reader.meizu.com/android/newsflow/index</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"articleId":"1567574112122001","lastReqId":"","cpType":"64","algorithmVersion":"TENCENT--1","putdate":"1567570868000","temp_column_cp_source":"64","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"c6359c2f-4597-4476-b166-5be6a52bcc53","opType":"3","supportSDK":"48","temp_column_name":"头条","browserCardSex":"-1","cpChannelId":"0","cpMark":"0","columnId":"-1","tags":"","ucparam":"{'channelId':0,'cityName':'','ftime':0,'method':'new','recoid':''}","temp_column_id":"-1","v":"8001000","sdkVersion":"2000001","flymeuid":"113543993","nt":"wifi","vn":"8.1.0","deviceinfo":"YEDj4AIQddxlCF4yz/1gg6DYgZfV4NHdPou8LbdQwUD46sYUONm2M9VR5iD2c0s4G/FQW+LAQ4njBO4fj0yylvgMbP4G2bhnKH3OO3js520LRs8fWaz+abwm25gWZMJhFJK7bJEDOCRSC2kiYU6lFOkLE9mc9aXYi/nr91Vq+CU=","pkgName":"com.android.browser","deviceType":"M8710","ip":"","os":"7.1.2-1562065338_stable"}</t>
-  </si>
-  <si>
-    <t>test019</t>
-  </si>
-  <si>
-    <t>非推荐频道资讯流</t>
-  </si>
-  <si>
-    <t>https://reader.meizu.com/android/newsflow/column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{"articleId":"1567686289958200","lastReqId":"","algorithmVersion":"JINRITOUTIAO-46","cpType":"84","putdate":"1567587960000","temp_column_cp_source":"84","offset":"0","baiduid":"","browserFreshRule":"1","browserCardEnabled":"1","temp_load_type":"4","clientReqId":"758c13f2-89e0-458c-91dc-af4a544207d1","opType":"3","temp_column_name":"%E8%A7%86%E9%A2%91&amp;supportSDK=48","browserCardSex":"-1","cpChannelId":"46","cpMark":"7","tags":"","columnId":"46","ucparam":"%7B%22channelId%22%3A46%2C%22cityName%22%3A%22%22%2C%22ftime%22%3A0%2C%22method%22%3A%22new%22%2C%22recoid%22%3A%22%22%7D","temp_column_id":"46","goldVersion":"1000000","v":"8002000","sdkVersion":"2002000","flymeuid":"113535901","nt":"wifi","vn":"8.2.0","deviceinfo":"K5tW96U381UAnuksQ%2Brlgj4y2j4mby1XHAhMn3eQ0lhI%2FlLrmCcNmvRWZHrNK6BVGfqyVWbw%2BoJF%0A8U9ODWoigmevBgILfNL4bvUpM8GDFFzQUs%2F02TRqcov3KyyuSblqIRMU0GmBPhGWZdrSdREj7QcU%0AIVnkOe7AwzN4HXhHcfE%3D%0A","pkgName":"com.android.browser","deviceType":"M576","ip":"","os":"5.1-1479146976_stable"}</t>
-  </si>
-  <si>
-    <t>test020</t>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-  </si>
-  <si>
-    <t>http://mp.meizu.com/api/auth/has/message</t>
-  </si>
-  <si>
-    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
-  </si>
-  <si>
-    <t>{"source":"6"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200
-</t>
-  </si>
-  <si>
-    <t>test021</t>
-  </si>
-  <si>
-    <t>添加评论</t>
-  </si>
-  <si>
-    <t>https://mp.meizu.com/api/auth/comment/add</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>access_token"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY3OTAzMDUyNjUsInMiOiJucyIsImMiOiIxIiwiciI6IjNjS3hvMkk2V293YzJGWXhWN1dFIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkY2N0M3NUMyMTc2Mjg0QTc4NDQ4MEEwRUE2MEZDNkZFIn0","imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
-    </r>
-  </si>
-  <si>
-    <t>{"businessType":"5","businessId":"34175513262088325_76_0","businessSubType":"4","content":"不","star":"","image":"","source":"6","materielId":"298200461","sign":"b5cbb875aea8e5c69487789774f96c0e"}</t>
-  </si>
-  <si>
-    <t>test022</t>
-  </si>
-  <si>
-    <t>获取我的评论</t>
-  </si>
-  <si>
-    <t>https://mp.meizu.com/api/auth/my/comment/list</t>
-  </si>
-  <si>
-    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MyIsInQiOjE1NjgyNzIzNDA2MjUsInMiOiJucyIsImMiOiIxIiwiciI6Imh4Y2FpVXo1V2ZkNDFRNk42QkV5IiwiYSI6IjhGQkJDNjYyMkEzRDlCNjlEQUY3Qjk1QjE3NkFERTY2IiwibCI6IkEyNzJEOUQ2NDVBRUU4QTU1ODRCMDYzQzkyNjBDMEU3In0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?sourceId=6&amp;noActionBar=false","sn":"793QBDQQ2223J"}</t>
-  </si>
-  <si>
-    <t>{"source":6,"count":10,"offset":0,"videoCpId":-1}</t>
-  </si>
-  <si>
-    <t>test023</t>
-  </si>
-  <si>
-    <t>获取我的消息</t>
-  </si>
-  <si>
-    <t>https://mp.meizu.com/api/auth/message</t>
-  </si>
-  <si>
-    <t>{"access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzU0Mzk5MSIsInQiOjE1NjgxOTk2Nzk4NDgsInMiOiJucyIsImMiOiIxIiwiciI6IlBLVEMybXBiZVdMTFpoTHhXTjV3IiwiYSI6IjAzQTNCQUI4MUREMzIxRjM0NDFCNjVDMEVBOEQ2Mzg0IiwibCI6IkI4MzY0OEExMDAxNDc4RkZCMDYwMEMzRjlDRDREMDZDIn0","imei":"863098030135628","Referer":"https://mp.mzres.com/resources/comment-center-web/index.html?noActionBar=false","sn":"793QBDQQ2223J"}</t>
-  </si>
-  <si>
-    <t>{"offset":"0","count":"10","source":"6","readCount":"-1","unreadCount":"-1","videoCpId":"-1"}</t>
-  </si>
-  <si>
-    <t>test024</t>
-  </si>
-  <si>
-    <t>获取文章评论</t>
-  </si>
-  <si>
-    <t>https://mp.meizu.com/api/comment/list</t>
-  </si>
-  <si>
-    <t>{"businessType":"5","businessId":"0N3ZBRxL_81_0","businessSubType":"4","offset":"10","count":"10","materielId":"71438959"}</t>
-  </si>
-  <si>
-    <t>登陆账号</t>
-  </si>
-  <si>
-    <t>https://api.meizu.com/oauth/token</t>
-  </si>
-  <si>
-    <t>{"scope":"trust","remember_me":"SxxgfatrTdka0oov-7sc2UP91GZTZHDU_obpqEanTJZWGnE3tfWat9sbUBIU-AVO-e_S21SzLKOFU0oLC9piUShm0F9_19ksQiXPIWB2QrERdNuvpt1f_Y5y-d_xYsLryktwzqr1hI_LI5YsKaH_yGguqB5nnc2nMnLHZBmoooI*MmF9yTI2Zz5QKCUBtbR83QXGbmO2O3FBko2t9dLpwSI7hvcVloTbLjjqEw1WJ_F0bqCQf6E2uK3CAbJXgrmQravf3kvhwFJ3HbMkM_8EHXJSdhyHlceH37gjz915w6oEa8HsCkAb--lTvvSlmNIDw7hzoWSdhzhDbMzaW4fuQeQ","client_id":"KzA76k3lBCYDqKTy6VYvb9WR6QSUWVGJ","client_secret":"G22l4Wj22DT9tKawFqi5x13w0TTalxxv","info":"base","grant_type":"remember_me","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","lang":"zh_CN"}</t>
-  </si>
-  <si>
-    <t>获取token</t>
-  </si>
-  <si>
-    <t>https://api.meizu.com/oauth/clients/uberauth</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"scope":"basic","client_id":"com.meizu.mzsyncservice","sn":"S25QACP56DK2M","imei":"861936030053089","device_model":"M68B0","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>":"eyJ2IjozLCJnIjpmYWxzZSwidSI6Ijc2NzgyNDIiLCJ0IjoxNTY2ODc1ODA1ODY2LCJzIjoibnMiLCJjIjoiMSIsInIiOiJ2dklUMHFFbmRiRExwTTZ5UEhsNiIsImEiOiJCOTEyNjNFQjU2Njk1NjVENEZFQ0U2QjY3REUzQkM0NSIsImwiOiIxNzgwMzQwQTA1NkFCODhEQTJGRDFFN0VFMEM1OUYxMCJ9","lang":"zh_CN"}</t>
     </r>
   </si>
+  <si>
+    <t>test015a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test015b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>value不为空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test017b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>value不为空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test017a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test024a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test024b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"imei":"861936030053089","sn":"S25QACP56DK2M"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>value不为空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"supportSDK":"48","videoVersion":"7011001","v":"7012000","sdkVersion":"1001004","flymeuid":"","nt":"wifi","vn":"7.12.0","deviceinfo":"If/JiY3Vuyw0ugRAt67MBiH1meVzHOQJxJp00KMF1F/5TUG1QygNRmYC2eVCX60Lrm0Wep148uxIepvp4TrTLHPpGckyhKOMo7fLaaoUXdiP8W6X8qf1sznQygj3UPwFlumsr73oHv2hzOogdpzZI1C924jaZQ4v1UIeUbSlRqk=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.29.60.58","os":"6.0-1517987373_I"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"v":"8000005","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.0.5","deviceinfo":"j+kuJDOuZEzmwERbCsxpUO9FJlwHJcgyYiHuQgw1HS+Hdf0LAtvt8Dauyn+AjtghddbxcQWZvy1j+OnyPQWOwDHo4MXKApRjyZgyaCAwnjgL9WwU6XLk3Sk6uB5VdvRtyI80CVhn+XYxTSML/2ztYxJOnucKLDeDRCaZb9UHwyQ=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I","access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"v":"8000005","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.0.5","deviceinfo":"j+kuJDOuZEzmwERbCsxpUO9FJlwHJcgyYiHuQgw1HS+Hdf0LAtvt8Dauyn+AjtghddbxcQWZvy1j+OnyPQWOwDHo4MXKApRjyZgyaCAwnjgL9WwU6XLk3Sk6uB5VdvRtyI80CVhn+XYxTSML/2ztYxJOnucKLDeDRCaZb9UHwyQ=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I","access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,18 +637,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -644,6 +659,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -652,155 +668,22 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -808,10 +691,26 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,194 +723,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1106,261 +819,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1372,10 +846,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,19 +858,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,20 +879,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,75 +910,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="超链接 2" xfId="51"/>
-    <cellStyle name="超链接 3" xfId="52"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="4"/>
+    <cellStyle name="超链接 3" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1553,7 +981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1588,7 +1016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1791,21 +1219,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
@@ -1819,7 +1246,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1276,7 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" ht="82.5" spans="1:9">
+    <row r="2" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="99" spans="1:9">
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="99" spans="1:9">
+    <row r="4" spans="1:10" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="99" spans="1:10">
+    <row r="5" spans="1:10" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1952,7 +1379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="99" spans="1:9">
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1977,7 +1404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="99" spans="1:9">
+    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +1429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:9">
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +1454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="66" spans="1:9">
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
@@ -2052,7 +1479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="66" spans="1:9">
+    <row r="10" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
@@ -2077,7 +1504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +1529,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -2125,7 +1552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2148,7 +1575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="99" spans="1:9">
+    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -2173,7 +1600,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="99" spans="1:10">
+    <row r="15" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -2199,7 +1626,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="99" spans="1:10">
+    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -2227,7 +1654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>57</v>
       </c>
@@ -2241,7 +1668,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>59</v>
       </c>
@@ -2264,7 +1691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -2289,7 +1716,7 @@
       <c r="J19" s="22"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -2314,7 +1741,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:11">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>67</v>
       </c>
@@ -2339,7 +1766,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="33" spans="1:11">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>71</v>
       </c>
@@ -2366,7 +1793,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:11">
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
@@ -2391,7 +1818,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -2416,7 +1843,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" ht="82.5" spans="1:11">
+    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
@@ -2443,7 +1870,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="82.5" spans="1:10">
+    <row r="26" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>86</v>
       </c>
@@ -2469,7 +1896,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="82.5" spans="1:10">
+    <row r="27" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>88</v>
       </c>
@@ -2497,7 +1924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" ht="82.5" spans="1:11">
+    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>90</v>
       </c>
@@ -2518,13 +1945,13 @@
         <v>94</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" ht="82.5" spans="1:11">
+    <row r="29" spans="1:11" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>96</v>
       </c>
@@ -2545,337 +1972,411 @@
         <v>94</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" ht="132" spans="1:9">
+    <row r="30" spans="1:11" ht="132" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="132" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="4" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="214.5" spans="1:10">
-      <c r="A31" s="14" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="24">
+        <v>200</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="24">
-        <v>200</v>
-      </c>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" ht="280.5" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" ht="313.5" spans="1:9">
-      <c r="A33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="363" spans="1:9">
+    <row r="34" spans="1:10" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>119</v>
+        <v>104</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" ht="115.5" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="E35" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="I35" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="115.5" spans="1:10">
-      <c r="A36" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="24">
+      <c r="I35" s="4">
         <v>200</v>
       </c>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="165" spans="1:9">
+    </row>
+    <row r="36" spans="1:10" ht="363" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>135</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="4">
+        <v>118</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="24">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" ht="165" spans="1:9">
-      <c r="A38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" ht="49.5" spans="1:9">
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="G39" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="28"/>
-    </row>
-    <row r="41" ht="409.5" spans="1:8">
-      <c r="A41" s="7"/>
+      <c r="I39" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="B41" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" ht="379.5" spans="1:8">
-      <c r="A42" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="B42" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="10" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="396" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" display="https://reader.meizu.com/android/unauth/v2700/columns/subscribe"/>
-    <hyperlink ref="E14" r:id="rId2" display="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E3" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E11" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E2" r:id="rId5" display="http://bro.flyme.cn/bro_setting/get"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
-    <hyperlink ref="E18" r:id="rId7" display="https://bro.flyme.cn/getUserData" tooltip="https://bro.flyme.cn/getUserData"/>
-    <hyperlink ref="E19" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
-    <hyperlink ref="E28" r:id="rId10" display="https://bro.flyme.cn/static/searchEngine/listHotSearch"/>
-    <hyperlink ref="E32" r:id="rId11" display="https://reader.meizu.com/android/auth/columns/subscribe/update"/>
-    <hyperlink ref="E35" r:id="rId12" display="http://mp.meizu.com/api/auth/has/message"/>
-    <hyperlink ref="E38" r:id="rId13" display="https://mp.meizu.com/api/auth/message"/>
-    <hyperlink ref="E33" r:id="rId14" display="https://reader.meizu.com/android/newsflow/index"/>
-    <hyperlink ref="E41" r:id="rId15" display="https://api.meizu.com/oauth/token"/>
-    <hyperlink ref="E42" r:id="rId16" display="https://api.meizu.com/oauth/clients/uberauth"/>
-    <hyperlink ref="E39" r:id="rId17" display="https://mp.meizu.com/api/comment/list"/>
-    <hyperlink ref="E21" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E22" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E23" r:id="rId18" display="http://bro.flyme.cn/client/getState.do"/>
-    <hyperlink ref="E25" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E24" r:id="rId20" display="http://bro.flyme.cn/static/tag/convert.do"/>
-    <hyperlink ref="E31" r:id="rId21" display="https://reader.meizu.com/android/auth/v2700/columns/subscribe"/>
-    <hyperlink ref="E36" r:id="rId22" display="https://mp.meizu.com/api/auth/comment/add"/>
-    <hyperlink ref="E9" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://bro.flyme.cn/static/base_data/list"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://bro.flyme.cn/static/bloom_config/listAll"/>
-    <hyperlink ref="E20" r:id="rId8" display="http://bro.flyme.cn/static/search_suggest/list"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://bro.flyme.cn/black_white_list/listMulti"/>
-    <hyperlink ref="E37" r:id="rId23" display="https://mp.meizu.com/api/auth/my/comment/list"/>
-    <hyperlink ref="E34" r:id="rId24" display="https://reader.meizu.com/android/newsflow/column"/>
-    <hyperlink ref="E26" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E27" r:id="rId19" display="https://bro.flyme.cn/site_square/list.do" tooltip="https://bro.flyme.cn/site_square/list.do"/>
-    <hyperlink ref="E15" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E16" r:id="rId2" display="https://bro.flyme.cn/search_engine/get" tooltip="https://bro.flyme.cn/search_engine/get"/>
-    <hyperlink ref="E4" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E5" r:id="rId3" display="http://bro.flyme.cn/card/get" tooltip="http://bro.flyme.cn/card/get"/>
-    <hyperlink ref="E29" r:id="rId10" display="https://bro.flyme.cn/static/searchEngine/listHotSearch"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8" tooltip="https://bro.flyme.cn/getUserData"/>
+    <hyperlink ref="E19" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="E33" r:id="rId12"/>
+    <hyperlink ref="E37" r:id="rId13"/>
+    <hyperlink ref="E40" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E44" r:id="rId16"/>
+    <hyperlink ref="E45" r:id="rId17"/>
+    <hyperlink ref="E41" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E38" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId26"/>
+    <hyperlink ref="E10" r:id="rId27"/>
+    <hyperlink ref="E13" r:id="rId28"/>
+    <hyperlink ref="E20" r:id="rId29"/>
+    <hyperlink ref="E7" r:id="rId30"/>
+    <hyperlink ref="E39" r:id="rId31"/>
+    <hyperlink ref="E36" r:id="rId32"/>
+    <hyperlink ref="E26" r:id="rId33" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E27" r:id="rId34" tooltip="https://bro.flyme.cn/site_square/list.do"/>
+    <hyperlink ref="E15" r:id="rId35" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E16" r:id="rId36" tooltip="https://bro.flyme.cn/search_engine/get"/>
+    <hyperlink ref="E4" r:id="rId37" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E5" r:id="rId38" tooltip="http://bro.flyme.cn/card/get"/>
+    <hyperlink ref="E29" r:id="rId39"/>
+    <hyperlink ref="E31" r:id="rId40"/>
+    <hyperlink ref="E34" r:id="rId41"/>
+    <hyperlink ref="E42" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\browser_api_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1python\bro-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="173">
   <si>
     <t>case_name</t>
   </si>
@@ -617,6 +617,69 @@
   </si>
   <si>
     <t>{"v":"8000005","sdkVersion":"2000000","flymeuid":"125444470","nt":"wifi","vn":"8.0.5","deviceinfo":"j+kuJDOuZEzmwERbCsxpUO9FJlwHJcgyYiHuQgw1HS+Hdf0LAtvt8Dauyn+AjtghddbxcQWZvy1j+OnyPQWOwDHo4MXKApRjyZgyaCAwnjgL9WwU6XLk3Sk6uB5VdvRtyI80CVhn+XYxTSML/2ztYxJOnucKLDeDRCaZb9UHwyQ=","pkgName":"com.android.browser","deviceType":"M68B0","ip":"172.18.8.143","os":"6.0-1517987373_I","access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjEyNTQ0NDQ3MCIsInQiOjE1NjY0NzYyMzUyODksInMiOiJucyIsImMiOiIxIiwiciI6Iko3bnVEOEo0cVdiUzQxcTBTZVduIiwiYSI6IjA5NTc4OTU1RkE2NTZGMkI0QTg1RDIxQzYwODlFMUUyIiwibCI6IkNEOUZCQkI5MDk3NDcyMTg5Mzg5MTc1QzkzRDMyNkQ3In0","orders":"9,29,55,21,2,46,30,6,41"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/unauth/img/channelImgList</t>
+  </si>
+  <si>
+    <t>test025</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新频道订阅状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/auth/columns/subscribe/update</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceType":"M9230","os":"9-1558982340_I","v":"8002000","nt":"wifi","goldVersion":"1000000","flymeuid":"125444470","pkgName":"com.android.browser","ip=&amp;vn":"8.2.0","sdkVersion":"2002000","deviceinfo":"qT4AiD5scUaM6%2B4TLqDCH3Iww5AynmjM1h0TMWYbEkZ%2BoErOyZ%2F%2Fky%2FffcFGtF%2FuRDFpvhhs9NL9%0A30TJVtqjLeUocZzNAuU2SLRFciX8QheaPN3StO4%2FKeqPiOivXoPqmKa5ytnvKLaL3cjyp83mLyKe%0A1lqzggY2d0%2FnC3dPaqA%3D%0A","access_token":"eyJ2IjozLCJnIjpmYWxzZSwidSI6IjExMzUxNjc0NyIsInQiOjE1Njg4NzU1NTU2MTEsInMiOiJucyIsImMiOiIxIiwiciI6IlhER0RRYXN2R3c1NVlEcGhSNjNKIiwiYSI6IjRGQTU0QkZGREQwOERGMEU1N0MwNjk2MDIzMzMyRjg4IiwibCI6IjQ0NTY2NjM3QjlGNDE0MTVERjRDNDg1M0EzQkM5MDlCIn0","orders":"458%2C516%2C524%2C356%2C517"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test026</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女频道标签获取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reader.meizu.com/android/unauth/imgColumnLabelNew</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceType":"M9230","os":"9-1558982340_I","v":"8002000","nt":"wifi","goldVersion":"1000000","flymeuid":"113516747","pkgName":"com.android.browser","ip=&amp;vn":"8.2.0","sdkVersion":"2002000","deviceinfo":"SLwFi7BmgYAnx8UFEBAbObh2Vp3Lwzn3LI8UifAsBTDkzYi5ihACABztOvktdCqnvBgV1zgvbp%2Bd%0AdypnQbF%2BJRripQaZJiDuYH1nld588kSXOoyIrqNoja%2Bw0zwFgX%2B6q%2FOGyQ0kJO%2FkG%2BmV%2F4Ww%2BSyP%0A7rca9WLx0jORQR36Mpo%3D%0A"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test026b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>value不为空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>test027</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女频道列表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"position":"15687948609955","type":"4","deviceType":"M9230","os":"9-1558982340_I","v":"8002000","nt":"wifi","goldVersion":"1000000","flymeuid":"113516747","pkgName":"com.android.browser","ip=&amp;vn":"8.2.0","sdkVersion":"2002000","deviceinfo":"V8w1DMfWrZkimyd%2BzwU2UOHLH7pFKidDlVeBgWQAt6gKO6UoOz0D%2Bj15p5fOt1q4L7UJeo4wZjfu%0AaGXwtoZvbv4tw22pYYFjT1GMbPqTwTrExkpJuxeHnjjX7rbgXnGSBcbBN5jLjlsTSBOySfJxULtF%0A3Ljzd%2BEyK7tOycXU8sI%3D%0A"}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1225,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2291,42 +2354,134 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:10" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
+    <row r="43" spans="1:10" ht="231" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="B44" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="396" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="B45" s="7" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="396" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="10" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2348,8 +2503,8 @@
     <hyperlink ref="E37" r:id="rId13"/>
     <hyperlink ref="E40" r:id="rId14"/>
     <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="E44" r:id="rId16"/>
-    <hyperlink ref="E45" r:id="rId17"/>
+    <hyperlink ref="E48" r:id="rId16"/>
+    <hyperlink ref="E49" r:id="rId17"/>
     <hyperlink ref="E41" r:id="rId18"/>
     <hyperlink ref="E21" r:id="rId19"/>
     <hyperlink ref="E22" r:id="rId20"/>
@@ -2375,6 +2530,9 @@
     <hyperlink ref="E31" r:id="rId40"/>
     <hyperlink ref="E34" r:id="rId41"/>
     <hyperlink ref="E42" r:id="rId42"/>
+    <hyperlink ref="E43" r:id="rId43"/>
+    <hyperlink ref="E44" r:id="rId44"/>
+    <hyperlink ref="E45" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
